--- a/meta/en/2-1-2-c.xlsx
+++ b/meta/en/2-1-2-c.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="12360"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="2" r:id="rId1"/>
+    <sheet name="Лист 1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -16,82 +16,91 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
-    <t>1. Информация об индикаторе</t>
-  </si>
-  <si>
-    <t>Цель</t>
-  </si>
-  <si>
-    <t>Задача</t>
-  </si>
-  <si>
-    <t>Индикатор</t>
-  </si>
-  <si>
-    <t>2. Информация об организации</t>
-  </si>
-  <si>
-    <t>Организация</t>
-  </si>
-  <si>
-    <t>Контактное лицо (лица) / Координатор</t>
-  </si>
-  <si>
-    <t>Электронная почта контактного лица</t>
-  </si>
-  <si>
-    <t>Телефон контактного лица</t>
-  </si>
-  <si>
-    <t>Сайт организации (если есть)</t>
-  </si>
-  <si>
-    <t>3. Определения и понятия</t>
-  </si>
-  <si>
-    <t>Определение</t>
-  </si>
-  <si>
-    <t>Основные понятия:</t>
-  </si>
-  <si>
-    <t>Обоснование и толкование</t>
-  </si>
-  <si>
-    <t>4. Источники данных и методы сбора</t>
-  </si>
-  <si>
-    <t>Источники данных</t>
-  </si>
-  <si>
-    <t>Методы сбора данных</t>
-  </si>
-  <si>
-    <t>5. Метод расчета и другие методологические основы</t>
-  </si>
-  <si>
-    <t>Метод расчета:</t>
-  </si>
-  <si>
-    <t>Комментарий и ограничения:</t>
-  </si>
-  <si>
-    <t>Гарантия качества:</t>
-  </si>
-  <si>
-    <t>6. Доступность данных и дезагрегация</t>
-  </si>
-  <si>
-    <t>Доступность данных и пробелы:</t>
-  </si>
-  <si>
-    <t>Разбивка:</t>
-  </si>
-  <si>
-    <t>7. Сопоставимость с международными данными / стандартами</t>
-  </si>
-  <si>
-    <t>8. Ссылки и документация</t>
+    <t>1. Indicator information</t>
+  </si>
+  <si>
+    <t>Goal</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>2. Data reporter</t>
+  </si>
+  <si>
+    <t>Organization</t>
+  </si>
+  <si>
+    <t>Contact person(s)/Focal point</t>
+  </si>
+  <si>
+    <t>Contact person's email</t>
+  </si>
+  <si>
+    <t>Contact person's phone</t>
+  </si>
+  <si>
+    <t>Organization website (if available)</t>
+  </si>
+  <si>
+    <t>3. Definitions and concepts</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>Concepts</t>
+  </si>
+  <si>
+    <t>Rationale and interpretation</t>
+  </si>
+  <si>
+    <t>4. Data sources and collection methods</t>
+  </si>
+  <si>
+    <t>Data sources</t>
+  </si>
+  <si>
+    <t>Data collection methods</t>
+  </si>
+  <si>
+    <t>5. Method of computation and other methodological considerations</t>
+  </si>
+  <si>
+    <t>Method of computation</t>
+  </si>
+  <si>
+    <t>Comments and limitations</t>
+  </si>
+  <si>
+    <t>Quality assurance</t>
+  </si>
+  <si>
+    <t>6. Data availability and disaggregation</t>
+  </si>
+  <si>
+    <t>Data availability and gaps</t>
+  </si>
+  <si>
+    <t>Disaggregation</t>
+  </si>
+  <si>
+    <t>7. Comparability with international data/standards</t>
+  </si>
+  <si>
+    <t>8. References and documentation</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>National Statistical Committee of the Kyrgyz Republic (Department of Agricultural Statistics)</t>
+  </si>
+  <si>
+    <t>Mursabekova G.T.</t>
   </si>
   <si>
     <t>g.mursabekova@stat.kg</t>
@@ -100,16 +109,13 @@
     <t>(0312) 60 40 43</t>
   </si>
   <si>
-    <t>www.stat.gov.kg</t>
-  </si>
-  <si>
     <t>2. End hunger, achieve food security and improved nutrition and promote sustainable agriculture</t>
   </si>
   <si>
-    <t>National Statistical Committee of the Kyrgyz Republic (Department of Agricultural Statistics)</t>
-  </si>
-  <si>
-    <t>Mursabekova G.T.</t>
+    <t>Logical and arithmetic control of the reporting data, analysis of the output tables is carried out.  embedded in the data entry and development software.</t>
+  </si>
+  <si>
+    <t>Dynamic series have been available since 2018.</t>
   </si>
   <si>
     <t>2.1 By 2030, end hunger and ensure access by all people, in particular the poor and people in vulnerable situations, including infants, to safe, nutritious and sufficient food all year round</t>
@@ -159,12 +165,6 @@
 Rsh= production of basic agricultural products and foodstuffs 
 Additionally, the share of the volume of processed products of imports to the volume of imports in% is calculated, and is calculated using the formula: 
 DIp=Ip/Ix*100 "</t>
-  </si>
-  <si>
-    <t>Logical and arithmetic control of the reporting data, analysis of the output tables is carried out.  embedded in the data entry and development software.</t>
-  </si>
-  <si>
-    <t>Dynamic series have been available since 2018.</t>
   </si>
 </sst>
 </file>
@@ -200,6 +200,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -211,7 +212,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -219,11 +219,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -240,7 +241,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -263,44 +264,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -311,60 +300,41 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="8" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="9" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="8" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="8" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="8" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="13">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
-    <cellStyle name="Обычный 2 2" xfId="3"/>
-    <cellStyle name="Обычный 2 2 2" xfId="8"/>
-    <cellStyle name="Обычный 2 3" xfId="5"/>
-    <cellStyle name="Обычный 2 3 2" xfId="10"/>
-    <cellStyle name="Обычный 2 4" xfId="2"/>
-    <cellStyle name="Обычный 2 4 2" xfId="7"/>
-    <cellStyle name="Обычный 2 5" xfId="6"/>
-    <cellStyle name="Обычный 3" xfId="4"/>
-    <cellStyle name="Обычный 3 2" xfId="9"/>
-    <cellStyle name="Обычный 4" xfId="11"/>
+    <cellStyle name="Обычный 2 2" xfId="4"/>
+    <cellStyle name="Обычный 2 2 2" xfId="9"/>
+    <cellStyle name="Обычный 2 3" xfId="6"/>
+    <cellStyle name="Обычный 2 3 2" xfId="11"/>
+    <cellStyle name="Обычный 2 4" xfId="3"/>
+    <cellStyle name="Обычный 2 4 2" xfId="8"/>
+    <cellStyle name="Обычный 2 5" xfId="7"/>
+    <cellStyle name="Обычный 2 6" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="5"/>
+    <cellStyle name="Обычный 3 2" xfId="10"/>
+    <cellStyle name="Обычный 4" xfId="12"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -668,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -689,24 +659,24 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>32</v>
+      <c r="B3" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>33</v>
+      <c r="B4" s="9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -719,40 +689,40 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>30</v>
+      <c r="B6" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="15" t="s">
-        <v>31</v>
+      <c r="B7" s="8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
-        <v>26</v>
+      <c r="B8" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="15" t="s">
-        <v>27</v>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="15" t="s">
-        <v>28</v>
+      <c r="B10" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,28 +731,28 @@
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>36</v>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -791,20 +761,20 @@
       </c>
       <c r="B15" s="2"/>
     </row>
-    <row r="16" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="245.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>38</v>
+      <c r="B17" s="6" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -813,26 +783,26 @@
       </c>
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="1:2" ht="408.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="159" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="12"/>
-    </row>
-    <row r="21" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>40</v>
+      <c r="B21" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -845,8 +815,8 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>41</v>
+      <c r="B23" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
